--- a/data/scheduling_DNN/predict/0.5/result3.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result3.xlsx
@@ -570,10 +570,10 @@
         <v>5.945752859115601</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.5004594326019287</v>
       </c>
       <c r="W2" t="n">
-        <v>29.90046691894531</v>
+        <v>29.65122032165527</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.402323007583618</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5073819160461426</v>
       </c>
       <c r="W3" t="n">
-        <v>0.854744553565979</v>
+        <v>0.8009195327758789</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>1.044303178787231</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8700111508369446</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1505149602890015</v>
+        <v>0.0303777102380991</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8884220123291016</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4222075641155243</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04236872866749763</v>
+        <v>0.2173559069633484</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8816509246826172</v>
       </c>
       <c r="V6" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8829120993614197</v>
       </c>
       <c r="W6" t="n">
-        <v>0.281819611787796</v>
+        <v>1.59056162374327e-06</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8709239959716797</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4032518863677979</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1263702362775803</v>
+        <v>0.2187172025442123</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8700020313262939</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4031406044960022</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2177445441484451</v>
+        <v>0.2179595977067947</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9313690662384033</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.5614773035049438</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1811464577913284</v>
+        <v>0.136819913983345</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8938760757446289</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4898540675640106</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04427888989448547</v>
+        <v>0.1632337868213654</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9247000217437744</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4875648021697998</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01376651413738728</v>
+        <v>0.1910872012376785</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8699769973754883</v>
       </c>
       <c r="V12" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4879902899265289</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1145341694355011</v>
+        <v>0.14591383934021</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8918051719665527</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.5130065679550171</v>
       </c>
       <c r="W13" t="n">
-        <v>0.143000066280365</v>
+        <v>0.1434883773326874</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8858809471130371</v>
       </c>
       <c r="V14" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8690864443778992</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1186545863747597</v>
+        <v>0.0002820553199853748</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9551160335540771</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.8791927099227905</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02955622039735317</v>
+        <v>0.005764351226389408</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8975329399108887</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.3974416851997375</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1126292124390602</v>
+        <v>0.2500912547111511</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8900690078735352</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.5133492946624756</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1491406410932541</v>
+        <v>0.1419177353382111</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9937880039215088</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8764672875404358</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3881931900978088</v>
+        <v>0.0137641504406929</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>1.051740884780884</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4032124876976013</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4913409650325775</v>
+        <v>0.4205890893936157</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9284350872039795</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8957012891769409</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08200554549694061</v>
+        <v>0.001071501523256302</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9283149242401123</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8777701854705811</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2996642589569092</v>
+        <v>0.002554770559072495</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.6615488529205322</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8785125613212585</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07513044029474258</v>
+        <v>0.04707325249910355</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.6288402080535889</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4924816489219666</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0001683067384874448</v>
+        <v>0.01859365589916706</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5791630744934082</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8669875860214233</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0308139156550169</v>
+        <v>0.08284294605255127</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.6175270080566406</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.5446557998657227</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01060861628502607</v>
+        <v>0.005310213193297386</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.6697568893432617</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4025202393531799</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02778130210936069</v>
+        <v>0.07141542434692383</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.7846379280090332</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5123074650764465</v>
       </c>
       <c r="W27" t="n">
-        <v>0.04403885453939438</v>
+        <v>0.07416388392448425</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5448260307312012</v>
       </c>
       <c r="V28" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4016799926757812</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0009238361963070929</v>
+        <v>0.02049078792333603</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.8724358081817627</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3974782228469849</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1122738346457481</v>
+        <v>0.2255847007036209</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5420491695404053</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8586769700050354</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05843879655003548</v>
+        <v>0.100253164768219</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.51739501953125</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4224298596382141</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1838529706001282</v>
+        <v>0.009018382057547569</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5705170631408691</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4969754815101624</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03992806002497673</v>
+        <v>0.005408364348113537</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5192909240722656</v>
       </c>
       <c r="V33" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8658072352409363</v>
       </c>
       <c r="W33" t="n">
-        <v>2.319668601558078e-05</v>
+        <v>0.1200735569000244</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5214078426361084</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8679482936859131</v>
       </c>
       <c r="W34" t="n">
-        <v>5.627224527415819e-05</v>
+        <v>0.1200902834534645</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5223710536956787</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4888131618499756</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005155859515070915</v>
+        <v>0.001126132090575993</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5205719470977783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.8596135973930359</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01366931665688753</v>
+        <v>0.1149492412805557</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.581143856048584</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.5012387037277222</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002165257930755615</v>
+        <v>0.006384833250194788</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5180249214172363</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.5132541060447693</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01882186904549599</v>
+        <v>2.276067971251905e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5188732147216797</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4893470406532288</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01329068839550018</v>
+        <v>0.0008717949385754764</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5202867984771729</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.5021759271621704</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01938075572252274</v>
+        <v>0.0003280036617070436</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5192568302154541</v>
       </c>
       <c r="V41" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4243936538696289</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02854748256504536</v>
+        <v>0.008999022655189037</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4030828475952148</v>
       </c>
       <c r="V42" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.875466525554657</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1447058320045471</v>
+        <v>0.2231463342905045</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4053199291229248</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8593723177909851</v>
       </c>
       <c r="W43" t="n">
-        <v>0.06124972924590111</v>
+        <v>0.2061635702848434</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3893141746520996</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.5134789347648621</v>
       </c>
       <c r="W44" t="n">
-        <v>0.005915550049394369</v>
+        <v>0.015416887588799</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3921270370483398</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5077312588691711</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01224211696535349</v>
+        <v>0.0133643364533782</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3887588977813721</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4934459924697876</v>
       </c>
       <c r="W46" t="n">
-        <v>0.001473605283536017</v>
+        <v>0.0109593877568841</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3987650871276855</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.8829011917114258</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3015407025814056</v>
+        <v>0.2343877702951431</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3914570808410645</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4232844710350037</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02123749814927578</v>
+        <v>0.001012982800602913</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3957479000091553</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4924874305725098</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003003507619723678</v>
+        <v>0.009358536452054977</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.392003059387207</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4216241538524628</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07276647537946701</v>
+        <v>0.0008774092420935631</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3899300098419189</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4928392767906189</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01284123212099075</v>
+        <v>0.01059031765908003</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.389854907989502</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8628085851669312</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0395701676607132</v>
+        <v>0.2236851751804352</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4424958229064941</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.3989605903625488</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001537381438538432</v>
+        <v>0.001895316527225077</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3881909847259521</v>
       </c>
       <c r="V54" t="n">
-        <v>0.534324586391449</v>
+        <v>0.5074758529663086</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0213550291955471</v>
+        <v>0.01422887947410345</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4339370727539062</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8637559413909912</v>
       </c>
       <c r="W55" t="n">
-        <v>0.006653329357504845</v>
+        <v>0.1847442537546158</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3880438804626465</v>
       </c>
       <c r="V56" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8578400015830994</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0001623019343242049</v>
+        <v>0.2207084000110626</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3987340927124023</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.3974685668945312</v>
       </c>
       <c r="W57" t="n">
-        <v>2.421261524432339e-05</v>
+        <v>1.601555595698301e-06</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3908939361572266</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4029076099395752</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01252984907478094</v>
+        <v>0.000144328354508616</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3904039859771729</v>
       </c>
       <c r="V59" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8574153184890747</v>
       </c>
       <c r="W59" t="n">
-        <v>0.3089849054813385</v>
+        <v>0.2180995792150497</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3897550106048584</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.3975057303905487</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01256206817924976</v>
+        <v>6.00736566411797e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4395840167999268</v>
       </c>
       <c r="V61" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.5131527185440063</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1178996562957764</v>
+        <v>0.005412353668361902</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.023046016693115</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8752594590187073</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2593523561954498</v>
+        <v>0.02184086665511131</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8680520057678223</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8966765403747559</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2675781548023224</v>
+        <v>0.0008193639805540442</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8683090209960938</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.8975585699081421</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1067206412553787</v>
+        <v>0.0008555360836908221</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9259071350097656</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.3973575234413147</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1698144823312759</v>
+        <v>0.2793647050857544</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8776111602783203</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.5133675336837769</v>
       </c>
       <c r="W66" t="n">
-        <v>0.05583503842353821</v>
+        <v>0.1326734125614166</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8686521053314209</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5155817270278931</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1528982073068619</v>
+        <v>0.1246586889028549</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8771340847015381</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8661658763885498</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1127780079841614</v>
+        <v>0.0001203015926876105</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9272270202636719</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4952237606048584</v>
       </c>
       <c r="W69" t="n">
-        <v>0.3045320510864258</v>
+        <v>0.1866268217563629</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.868394136428833</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8668959140777588</v>
       </c>
       <c r="W70" t="n">
-        <v>0.004667578265070915</v>
+        <v>2.24467021325836e-06</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8702638149261475</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8695480227470398</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1631922721862793</v>
+        <v>5.123584401189873e-07</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8926279544830322</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4112378656864166</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2935967445373535</v>
+        <v>0.231736421585083</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9344460964202881</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.3974611163139343</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1116953939199448</v>
+        <v>0.2883528769016266</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>1.00794792175293</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4102663397789001</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1058915182948112</v>
+        <v>0.3572232723236084</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8800439834594727</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4967744946479797</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05697383731603622</v>
+        <v>0.1468954980373383</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8721909523010254</v>
       </c>
       <c r="V76" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.5140080451965332</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2723753154277802</v>
+        <v>0.1282949894666672</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8821659088134766</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8665415048599243</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1880844384431839</v>
+        <v>0.0002441219985485077</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8857948780059814</v>
       </c>
       <c r="V78" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8716111183166504</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2865896224975586</v>
+        <v>0.000201179034775123</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8683860301971436</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5021380186080933</v>
       </c>
       <c r="W79" t="n">
-        <v>0.07830915600061417</v>
+        <v>0.1341376006603241</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8622159957885742</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4022907912731171</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2367905080318451</v>
+        <v>0.2115311920642853</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8666620254516602</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8799517154693604</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2664808332920074</v>
+        <v>0.0001766158675309271</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5558428764343262</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4852690994739532</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02317189425230026</v>
+        <v>0.004980658181011677</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5368978977203369</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8852792382240295</v>
       </c>
       <c r="W83" t="n">
-        <v>3.093924192398845e-07</v>
+        <v>0.1213695555925369</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5225358009338379</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.3974626660346985</v>
       </c>
       <c r="W84" t="n">
-        <v>0.022418312728405</v>
+        <v>0.0156432893127203</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5384631156921387</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8928073644638062</v>
       </c>
       <c r="W85" t="n">
-        <v>0.03522370755672455</v>
+        <v>0.1255598515272141</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5558300018310547</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8842083811759949</v>
       </c>
       <c r="W86" t="n">
-        <v>0.03268437832593918</v>
+        <v>0.1078323572874069</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5278911590576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.492561936378479</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1731158196926117</v>
+        <v>0.001248153974302113</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5133829116821289</v>
       </c>
       <c r="V88" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5245794057846069</v>
       </c>
       <c r="W88" t="n">
-        <v>0.1872329264879227</v>
+        <v>0.000125361475511454</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5203299522399902</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.8652812838554382</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0002368679561186582</v>
+        <v>0.118991419672966</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5177218914031982</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.878684937953949</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0002112630463670939</v>
+        <v>0.1302943229675293</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5217900276184082</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.3974854946136475</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02259127981960773</v>
+        <v>0.01545161660760641</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5209360122680664</v>
       </c>
       <c r="V92" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.4031601548194885</v>
       </c>
       <c r="W92" t="n">
-        <v>0.06819658726453781</v>
+        <v>0.0138711528852582</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5276699066162109</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.403219997882843</v>
       </c>
       <c r="W93" t="n">
-        <v>4.335518678999506e-05</v>
+        <v>0.01548777986317873</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5155179500579834</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.5132783651351929</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0006686631240881979</v>
+        <v>5.01574049849296e-06</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5194981098175049</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4234285950660706</v>
       </c>
       <c r="W95" t="n">
-        <v>0.000478649657452479</v>
+        <v>0.00922935176640749</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5719070434570312</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8704513311386108</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003295114496722817</v>
+        <v>0.08912869542837143</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5198080539703369</v>
       </c>
       <c r="V97" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4986980259418488</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0004623419081326574</v>
+        <v>0.0004456332826521248</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5201311111450195</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4105145633220673</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01814966276288033</v>
+        <v>0.01201578788459301</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5220580101013184</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.5098856091499329</v>
       </c>
       <c r="W99" t="n">
-        <v>0.001515800016932189</v>
+        <v>0.0001481673389207572</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5203979015350342</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5074945092201233</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0839330181479454</v>
+        <v>0.0001664975279709324</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5324001312255859</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8687847256660461</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01657053083181381</v>
+        <v>0.1131545975804329</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4669079780578613</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.403035044670105</v>
       </c>
       <c r="W102" t="n">
-        <v>0.03605890274047852</v>
+        <v>0.004079751670360565</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4054429531097412</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.8765434622764587</v>
       </c>
       <c r="W103" t="n">
-        <v>3.128750449832296e-06</v>
+        <v>0.2219356894493103</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3941051959991455</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8766985535621643</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01433198899030685</v>
+        <v>0.2328963428735733</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4042239189147949</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.4986917972564697</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0638306513428688</v>
+        <v>0.008924179710447788</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3869490623474121</v>
       </c>
       <c r="V106" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4022553563117981</v>
       </c>
       <c r="W106" t="n">
-        <v>0.01628558151423931</v>
+        <v>0.0002342826337553561</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3908250331878662</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.3991203308105469</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01511115208268166</v>
+        <v>6.881196168251336e-05</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3896760940551758</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8802589178085327</v>
       </c>
       <c r="W108" t="n">
-        <v>0.007772439159452915</v>
+        <v>0.2406715005636215</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3902239799499512</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4990720748901367</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1762715131044388</v>
+        <v>0.01184790767729282</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3901910781860352</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4095257520675659</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0001697310071904212</v>
+        <v>0.0003738296218216419</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.39339280128479</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8759788870811462</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0621374174952507</v>
+        <v>0.232889324426651</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4686710834503174</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8787693381309509</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01946777291595936</v>
+        <v>0.1681805849075317</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.6834900379180908</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.3975028395652771</v>
       </c>
       <c r="W113" t="n">
-        <v>0.03345854207873344</v>
+        <v>0.08178867399692535</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.40848708152771</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.3992619514465332</v>
       </c>
       <c r="W114" t="n">
-        <v>0.003329452592879534</v>
+        <v>8.510302723152563e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3934600353240967</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.3989225625991821</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01132404524832964</v>
+        <v>2.983920421684161e-05</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3943271636962891</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8563458323478699</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0144626684486866</v>
+        <v>0.2134612500667572</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3956549167633057</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.3974702656269073</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01400636229664087</v>
+        <v>3.295491524113459e-06</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4093818664550781</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4114938974380493</v>
       </c>
       <c r="W118" t="n">
-        <v>0.05404653027653694</v>
+        <v>4.46067497250624e-06</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4337210655212402</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8674162030220032</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0006337208906188607</v>
+        <v>0.1880914717912674</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.400670051574707</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8661432862281799</v>
       </c>
       <c r="W120" t="n">
-        <v>0.002489393809810281</v>
+        <v>0.2166653275489807</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3932690620422363</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4897556304931641</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0001017664762912318</v>
+        <v>0.009309657849371433</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8711731433868408</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.4336308538913727</v>
       </c>
       <c r="W122" t="n">
-        <v>0.176827073097229</v>
+        <v>0.1914432495832443</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8774368762969971</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.39748415350914</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1395171135663986</v>
+        <v>0.2303546220064163</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9265050888061523</v>
       </c>
       <c r="V124" t="n">
-        <v>0.672019362449646</v>
+        <v>0.560198962688446</v>
       </c>
       <c r="W124" t="n">
-        <v>0.06476298719644547</v>
+        <v>0.1341801732778549</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8786499500274658</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8896035552024841</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1010414287447929</v>
+        <v>0.0001199814651045017</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.911376953125</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5133479833602905</v>
       </c>
       <c r="W126" t="n">
-        <v>0.169845923781395</v>
+        <v>0.1584270596504211</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.883713960647583</v>
       </c>
       <c r="V127" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4103448390960693</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1742603629827499</v>
+        <v>0.2240783274173737</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9248020648956299</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4957658350467682</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1470315456390381</v>
+        <v>0.1840720921754837</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8692669868469238</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4980131387710571</v>
       </c>
       <c r="W129" t="n">
-        <v>0.003644964890554547</v>
+        <v>0.1378294229507446</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8648159503936768</v>
       </c>
       <c r="V130" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.86549973487854</v>
       </c>
       <c r="W130" t="n">
-        <v>0.002399764256551862</v>
+        <v>4.675612217397429e-07</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8667480945587158</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4919076561927795</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2356936186552048</v>
+        <v>0.1405053585767746</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9356780052185059</v>
       </c>
       <c r="V132" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5133857727050781</v>
       </c>
       <c r="W132" t="n">
-        <v>0.02334826625883579</v>
+        <v>0.178330734372139</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8842630386352539</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4965524971485138</v>
       </c>
       <c r="W133" t="n">
-        <v>0.09446053206920624</v>
+        <v>0.1503194570541382</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8739171028137207</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4021812677383423</v>
       </c>
       <c r="W134" t="n">
-        <v>0.004348259419202805</v>
+        <v>0.2225347012281418</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8755168914794922</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4120042324066162</v>
       </c>
       <c r="W135" t="n">
-        <v>0.137883722782135</v>
+        <v>0.2148439884185791</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.874000072479248</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5142433047294617</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1152770966291428</v>
+        <v>0.1294249296188354</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8749480247497559</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4014777541160583</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1375490576028824</v>
+        <v>0.2241740971803665</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8735060691833496</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8692363500595093</v>
       </c>
       <c r="W138" t="n">
-        <v>0.0478263758122921</v>
+        <v>1.823050115490332e-05</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8731160163879395</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8757848143577576</v>
       </c>
       <c r="W139" t="n">
-        <v>0.03632228448987007</v>
+        <v>7.122482656995999e-06</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8761031627655029</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4989131689071655</v>
       </c>
       <c r="W140" t="n">
-        <v>0.07175884395837784</v>
+        <v>0.1422722935676575</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8762381076812744</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.3974374234676361</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1383300721645355</v>
+        <v>0.2292500883340836</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5425300598144531</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8765944838523865</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0007893796428106725</v>
+        <v>0.1115990430116653</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5303299427032471</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.5002559423446655</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0002255434956168756</v>
+        <v>0.0009044454782269895</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5818018913269043</v>
       </c>
       <c r="V144" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.3975018560886383</v>
       </c>
       <c r="W144" t="n">
-        <v>0.04036548733711243</v>
+        <v>0.03396650403738022</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5204288959503174</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8856674432754517</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02229194343090057</v>
+        <v>0.1333992034196854</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5220580101013184</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.3973637819290161</v>
       </c>
       <c r="W146" t="n">
-        <v>6.253813626244664e-05</v>
+        <v>0.01554865017533302</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5379500389099121</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4970164895057678</v>
       </c>
       <c r="W147" t="n">
-        <v>1.03374704849557e-05</v>
+        <v>0.001675555482506752</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5232589244842529</v>
       </c>
       <c r="V148" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.409575879573822</v>
       </c>
       <c r="W148" t="n">
-        <v>0.1801224201917648</v>
+        <v>0.0129238348454237</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5255138874053955</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8615787625312805</v>
       </c>
       <c r="W149" t="n">
-        <v>0.08002801239490509</v>
+        <v>0.1129396036267281</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5638060569763184</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4846428334712982</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02563777752220631</v>
+        <v>0.006266816053539515</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.526716947555542</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.5131354928016663</v>
       </c>
       <c r="W151" t="n">
-        <v>0.002438673283904791</v>
+        <v>0.0001844559155870229</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5442018508911133</v>
       </c>
       <c r="V152" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.3976253271102905</v>
       </c>
       <c r="W152" t="n">
-        <v>0.07638389617204666</v>
+        <v>0.02148467674851418</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5199310779571533</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.3991245031356812</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01759333908557892</v>
+        <v>0.01459422893822193</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5260131359100342</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.3991323113441467</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0001513196766609326</v>
+        <v>0.01609874330461025</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5269739627838135</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.493802547454834</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0001659396366449073</v>
+        <v>0.001100342837162316</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5227911472320557</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.411322683095932</v>
       </c>
       <c r="W156" t="n">
-        <v>0.07979892194271088</v>
+        <v>0.01242521870881319</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5201258659362793</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5088066458702087</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01775753125548363</v>
+        <v>0.0001281247386941686</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5201921463012695</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8876872062683105</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02869902737438679</v>
+        <v>0.1350526213645935</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5204060077667236</v>
       </c>
       <c r="V159" t="n">
-        <v>0.65655517578125</v>
+        <v>0.4233731031417847</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01853659562766552</v>
+        <v>0.009415384382009506</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.575502872467041</v>
       </c>
       <c r="V160" t="n">
-        <v>0.944080114364624</v>
+        <v>0.402193695306778</v>
       </c>
       <c r="W160" t="n">
-        <v>0.1358491778373718</v>
+        <v>0.03003607131540775</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5227921009063721</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.5099987983703613</v>
       </c>
       <c r="W161" t="n">
-        <v>0.1762164682149887</v>
+        <v>0.0001636685919947922</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3967180252075195</v>
       </c>
       <c r="V162" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.4921962320804596</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1490908414125443</v>
+        <v>0.009116088040173054</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3966259956359863</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.40077805519104</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06068112328648567</v>
+        <v>1.72395994013641e-05</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3924560546875</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4894738793373108</v>
       </c>
       <c r="W164" t="n">
-        <v>0.007346375845372677</v>
+        <v>0.009412458166480064</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3941440582275391</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4994316697120667</v>
       </c>
       <c r="W165" t="n">
-        <v>0.005194785539060831</v>
+        <v>0.01108548138290644</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4394950866699219</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8997666239738464</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05909786373376846</v>
+        <v>0.2118498831987381</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3968589305877686</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8961440324783325</v>
       </c>
       <c r="W167" t="n">
-        <v>0.07573963701725006</v>
+        <v>0.2492856085300446</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3933479785919189</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8596121668815613</v>
       </c>
       <c r="W168" t="n">
-        <v>0.08829799294471741</v>
+        <v>0.2174022942781448</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3951339721679688</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4903703033924103</v>
       </c>
       <c r="W169" t="n">
-        <v>7.141511741792783e-05</v>
+        <v>0.009069958701729774</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3934040069580078</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.515122652053833</v>
       </c>
       <c r="W170" t="n">
-        <v>0.003263694932684302</v>
+        <v>0.01481542829424143</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3920400142669678</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8699911832809448</v>
       </c>
       <c r="W171" t="n">
-        <v>0.00170242483727634</v>
+        <v>0.2284373193979263</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4604871273040771</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.3973563313484192</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003230101661756635</v>
+        <v>0.003985497169196606</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3986358642578125</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.4030692577362061</v>
       </c>
       <c r="W173" t="n">
-        <v>2.459303323121276e-05</v>
+        <v>1.965497722267173e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4185209274291992</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.40228471159935</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0002225964999524876</v>
+        <v>0.0002636146964505315</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.397615909576416</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4233564436435699</v>
       </c>
       <c r="W175" t="n">
-        <v>0.06698973476886749</v>
+        <v>0.0006625750684179366</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3952150344848633</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4219101667404175</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03738309815526009</v>
+        <v>0.0007126301061362028</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4167029857635498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.504438042640686</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0001695539976935834</v>
+        <v>0.007697440218180418</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4565739631652832</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8565548062324524</v>
       </c>
       <c r="W178" t="n">
-        <v>0.002045097993686795</v>
+        <v>0.159984678030014</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3953800201416016</v>
       </c>
       <c r="V179" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8662980794906616</v>
       </c>
       <c r="W179" t="n">
-        <v>0.06738481670618057</v>
+        <v>0.2217638194561005</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3952269554138184</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.4995448887348175</v>
       </c>
       <c r="W180" t="n">
-        <v>0.09113592654466629</v>
+        <v>0.0108822314068675</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.40985107421875</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8707072138786316</v>
       </c>
       <c r="W181" t="n">
-        <v>4.178913513896987e-05</v>
+        <v>0.2123883813619614</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8757898807525635</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8675298094749451</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2229185849428177</v>
+        <v>6.822877912782133e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9216158390045166</v>
       </c>
       <c r="V183" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4234782159328461</v>
       </c>
       <c r="W183" t="n">
-        <v>0.000508899858687073</v>
+        <v>0.2481410950422287</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8719899654388428</v>
       </c>
       <c r="V184" t="n">
-        <v>0.656647801399231</v>
+        <v>0.491004467010498</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04637224599719048</v>
+        <v>0.1451499462127686</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8814821243286133</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.3989216089248657</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2283642888069153</v>
+        <v>0.232864648103714</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8747470378875732</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.4888647496700287</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1171645149588585</v>
+        <v>0.1489051431417465</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9553229808807373</v>
       </c>
       <c r="V187" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.3974685668945312</v>
       </c>
       <c r="W187" t="n">
-        <v>1.496406548540108e-05</v>
+        <v>0.3112015426158905</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8733320236206055</v>
       </c>
       <c r="V188" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8714772462844849</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04803349077701569</v>
+        <v>3.440198952375795e-06</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8774330615997314</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.5007553100585938</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1821306049823761</v>
+        <v>0.1418861299753189</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.906519889831543</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.8748973608016968</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2812703251838684</v>
+        <v>0.0009999843314290047</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9388799667358398</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8760119676589966</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1590206325054169</v>
+        <v>0.003952385392040014</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8722100257873535</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.5064564943313599</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2718814313411713</v>
+        <v>0.1337756514549255</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8767149448394775</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8969202637672424</v>
       </c>
       <c r="W193" t="n">
-        <v>0.004467401187866926</v>
+        <v>0.0004082549130544066</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8663032054901123</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8930583596229553</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1055755987763405</v>
+        <v>0.0007158382795751095</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9308040142059326</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3974718153476715</v>
       </c>
       <c r="W195" t="n">
-        <v>0.07656785100698471</v>
+        <v>0.2844432592391968</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.883652925491333</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8952577710151672</v>
       </c>
       <c r="W196" t="n">
-        <v>0.006045002024620771</v>
+        <v>0.0001346724457107484</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8913240432739258</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.5134069919586182</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2904484272003174</v>
+        <v>0.1428212970495224</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>1.003369808197021</v>
       </c>
       <c r="V198" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5163137912750244</v>
       </c>
       <c r="W198" t="n">
-        <v>0.03821177408099174</v>
+        <v>0.2372235655784607</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8833379745483398</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4911844730377197</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1891679316759109</v>
+        <v>0.1537843644618988</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8711180686950684</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4987644255161285</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1087199300527573</v>
+        <v>0.1386472284793854</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9243350028991699</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8777300119400024</v>
       </c>
       <c r="W201" t="n">
-        <v>0.07902667671442032</v>
+        <v>0.002172025153413415</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5236968994140625</v>
       </c>
       <c r="V202" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8749355673789978</v>
       </c>
       <c r="W202" t="n">
-        <v>0.06760414689779282</v>
+        <v>0.1233685985207558</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5743749141693115</v>
       </c>
       <c r="V203" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4178417921066284</v>
       </c>
       <c r="W203" t="n">
-        <v>0.04397508502006531</v>
+        <v>0.02450261823832989</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5474390983581543</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8751724362373352</v>
       </c>
       <c r="W204" t="n">
-        <v>0.00185514974873513</v>
+        <v>0.1074091419577599</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5211119651794434</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8947075009346008</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0001776566641638055</v>
+        <v>0.1395736187696457</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.521172046661377</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.5133166313171387</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01963386498391628</v>
+        <v>6.170754932099953e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5233850479125977</v>
       </c>
       <c r="V207" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4045100510120392</v>
       </c>
       <c r="W207" t="n">
-        <v>0.06734997779130936</v>
+        <v>0.01413126476109028</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5730509757995605</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8726270198822021</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0035006667021662</v>
+        <v>0.08974580466747284</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5203030109405518</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8806672096252441</v>
       </c>
       <c r="W209" t="n">
-        <v>0.03141309320926666</v>
+        <v>0.1298623532056808</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5211770534515381</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8762572407722473</v>
       </c>
       <c r="W210" t="n">
-        <v>0.00163206597790122</v>
+        <v>0.1260819435119629</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5285830497741699</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.8683763146400452</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01590720936655998</v>
+        <v>0.1154594644904137</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.525137186050415</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.3974836766719818</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0834466889500618</v>
+        <v>0.0162954181432724</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5246059894561768</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4227793514728546</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0669102743268013</v>
+        <v>0.01036866381764412</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5465149879455566</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.4030455052852631</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01174722332507372</v>
+        <v>0.02058349177241325</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5257470607757568</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.4850295782089233</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02133392170071602</v>
+        <v>0.001657913438975811</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5318009853363037</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4123951196670532</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01649624295532703</v>
+        <v>0.01425776071846485</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5218098163604736</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4031437933444977</v>
       </c>
       <c r="W217" t="n">
-        <v>0.03110070899128914</v>
+        <v>0.01408162526786327</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5193781852722168</v>
       </c>
       <c r="V218" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4030492901802063</v>
       </c>
       <c r="W218" t="n">
-        <v>0.06946654617786407</v>
+        <v>0.01353241223841906</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5870599746704102</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4984955787658691</v>
       </c>
       <c r="W219" t="n">
-        <v>0.04283499345183372</v>
+        <v>0.007843651808798313</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5251181125640869</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.496795117855072</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03001720085740089</v>
+        <v>0.0008021920220926404</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5251779556274414</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8718612790107727</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0005566947511397302</v>
+        <v>0.1201893240213394</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3907299041748047</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4131818115711212</v>
       </c>
       <c r="W222" t="n">
-        <v>0.003329748287796974</v>
+        <v>0.0005040881223976612</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3944621086120605</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4948688149452209</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0003493580734357238</v>
+        <v>0.0100815063342452</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3939080238342285</v>
       </c>
       <c r="V224" t="n">
-        <v>0.672245979309082</v>
+        <v>0.5275065898895264</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0774720162153244</v>
+        <v>0.01784857735037804</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3995401859283447</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8777925372123718</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01760045439004898</v>
+        <v>0.2287253141403198</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3947958946228027</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8712315559387207</v>
       </c>
       <c r="W226" t="n">
-        <v>0.08742640912532806</v>
+        <v>0.2269909381866455</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3962509632110596</v>
       </c>
       <c r="V227" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.5133486390113831</v>
       </c>
       <c r="W227" t="n">
-        <v>0.3025243282318115</v>
+        <v>0.01371186599135399</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3982570171356201</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.897014319896698</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0007594482158310711</v>
+        <v>0.248758852481842</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.407926082611084</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4862762987613678</v>
       </c>
       <c r="W229" t="n">
-        <v>0.00106390577275306</v>
+        <v>0.006138756405562162</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3979439735412598</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8700742125511169</v>
       </c>
       <c r="W230" t="n">
-        <v>0.05959870666265488</v>
+        <v>0.2229069620370865</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3971788883209229</v>
       </c>
       <c r="V231" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.8701310157775879</v>
       </c>
       <c r="W231" t="n">
-        <v>0.2973500192165375</v>
+        <v>0.2236837148666382</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3999969959259033</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.40290766954422</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1731195896863937</v>
+        <v>8.472021363559179e-06</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.396759033203125</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8720820546150208</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002113377209752798</v>
+        <v>0.2259319722652435</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3967180252075195</v>
       </c>
       <c r="V234" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.411077618598938</v>
       </c>
       <c r="W234" t="n">
-        <v>0.303769052028656</v>
+        <v>0.0002061979175778106</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4009778499603271</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.3974816203117371</v>
       </c>
       <c r="W235" t="n">
-        <v>6.00361590841203e-06</v>
+        <v>1.222362152475398e-05</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3965721130371094</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8667392730712891</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06669780611991882</v>
+        <v>0.2210571616888046</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3978939056396484</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.3974651694297791</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002220834139734507</v>
+        <v>1.838147341004515e-07</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3946290016174316</v>
       </c>
       <c r="V238" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8731151223182678</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01203303597867489</v>
+        <v>0.2289489656686783</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4182898998260498</v>
       </c>
       <c r="V239" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4226771891117096</v>
       </c>
       <c r="W239" t="n">
-        <v>0.001377030508592725</v>
+        <v>1.924830758071039e-05</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4336950778961182</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8861976265907288</v>
       </c>
       <c r="W240" t="n">
-        <v>0.06189641728997231</v>
+        <v>0.2047585546970367</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.398798942565918</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8627616763114929</v>
       </c>
       <c r="W241" t="n">
-        <v>2.303219844179694e-05</v>
+        <v>0.2152614146471024</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9465889930725098</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.5594748854637146</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1641892641782761</v>
+        <v>0.1498573273420334</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.883519172668457</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.5148908495903015</v>
       </c>
       <c r="W243" t="n">
-        <v>0.08688422292470932</v>
+        <v>0.1358868479728699</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8847579956054688</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4220661222934723</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1443467289209366</v>
+        <v>0.2140837758779526</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8791909217834473</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4969447255134583</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2774759531021118</v>
+        <v>0.1461121588945389</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9394750595092773</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8718081116676331</v>
       </c>
       <c r="W246" t="n">
-        <v>0.3465609550476074</v>
+        <v>0.004578815773129463</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8899149894714355</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8761937618255615</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1696306318044662</v>
+        <v>0.000188272082596086</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8772459030151367</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4019204378128052</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1597333997488022</v>
+        <v>0.2259342968463898</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8970189094543457</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.3974955976009369</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1543162614107132</v>
+        <v>0.2495235353708267</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9348878860473633</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.5132966041564941</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1626364141702652</v>
+        <v>0.1777392029762268</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9329957962036133</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.3974506556987762</v>
       </c>
       <c r="W251" t="n">
-        <v>0.01464548427611589</v>
+        <v>0.286808580160141</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9053869247436523</v>
       </c>
       <c r="V252" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.514903724193573</v>
       </c>
       <c r="W252" t="n">
-        <v>0.001371528604067862</v>
+        <v>0.1524771302938461</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9161319732666016</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4224855899810791</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2922381162643433</v>
+        <v>0.2436867505311966</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>1.027273178100586</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4859678447246552</v>
       </c>
       <c r="W254" t="n">
-        <v>0.04704007133841515</v>
+        <v>0.2930114269256592</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8848731517791748</v>
       </c>
       <c r="V255" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.500403881072998</v>
       </c>
       <c r="W255" t="n">
-        <v>0.00717041315510869</v>
+        <v>0.1478166133165359</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8763890266418457</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4007340967655182</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2762676477432251</v>
+        <v>0.2262476086616516</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8796389102935791</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.3974983096122742</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1173244416713715</v>
+        <v>0.2324595600366592</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8796989917755127</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4987135529518127</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1018021553754807</v>
+        <v>0.145149901509285</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8823080062866211</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8607327342033386</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1356636583805084</v>
+        <v>0.0004654923686757684</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8731160163879395</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4031057357788086</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2711150646209717</v>
+        <v>0.2209096699953079</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8817441463470459</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4891129434108734</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1251995414495468</v>
+        <v>0.1541592627763748</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5441410541534424</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4029768705368042</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01268589496612549</v>
+        <v>0.01992732658982277</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5430498123168945</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4955812096595764</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008528887294232845</v>
+        <v>0.002253268146887422</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5265190601348877</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8714465498924255</v>
       </c>
       <c r="W264" t="n">
-        <v>0.00060584198217839</v>
+        <v>0.1189749762415886</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.530832052230835</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8634667992591858</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0008857783977873623</v>
+        <v>0.1106458753347397</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5277059078216553</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8840442299842834</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01619916595518589</v>
+        <v>0.1269769966602325</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.580672025680542</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8774888515472412</v>
       </c>
       <c r="W267" t="n">
-        <v>0.004401877522468567</v>
+        <v>0.08810022473335266</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5297980308532715</v>
       </c>
       <c r="V268" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4007806181907654</v>
       </c>
       <c r="W268" t="n">
-        <v>0.06436920166015625</v>
+        <v>0.01664549298584461</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5297999382019043</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.397458553314209</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01290856581181288</v>
+        <v>0.01751424185931683</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5274658203125</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.5136253237724304</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02313059195876122</v>
+        <v>0.0001915593456942588</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5341780185699463</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.877469003200531</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0336383618414402</v>
+        <v>0.117848701775074</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6117849349975586</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8717493414878845</v>
       </c>
       <c r="W272" t="n">
-        <v>0.04334264993667603</v>
+        <v>0.06758148968219757</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5235409736633301</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.514251708984375</v>
       </c>
       <c r="W273" t="n">
-        <v>0.000115142458525952</v>
+        <v>8.629044168628752e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5503199100494385</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5133986473083496</v>
       </c>
       <c r="W274" t="n">
-        <v>0.000176514484337531</v>
+        <v>0.0013631796464324</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5267140865325928</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.883979856967926</v>
       </c>
       <c r="W275" t="n">
-        <v>1.010726555250585e-05</v>
+        <v>0.1276388317346573</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5267341136932373</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8650332689285278</v>
       </c>
       <c r="W276" t="n">
-        <v>0.000113329391751904</v>
+        <v>0.1144463196396828</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5272860527038574</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4931587278842926</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0132783567532897</v>
+        <v>0.001164674293249846</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5288281440734863</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.8636122941970825</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01568074338138103</v>
+        <v>0.1120804250240326</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5314769744873047</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4091154634952545</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0001026178651954979</v>
+        <v>0.01497233938425779</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5244569778442383</v>
       </c>
       <c r="V280" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.3989551067352295</v>
       </c>
       <c r="W280" t="n">
-        <v>0.1747112274169922</v>
+        <v>0.01575071923434734</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5237269401550293</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4107269644737244</v>
       </c>
       <c r="W281" t="n">
-        <v>0.014404715038836</v>
+        <v>0.0127689940854907</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.404116153717041</v>
       </c>
       <c r="V282" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.5133504271507263</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1442442983388901</v>
+        <v>0.01193212624639273</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4564518928527832</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4903771281242371</v>
       </c>
       <c r="W283" t="n">
-        <v>0.05113516002893448</v>
+        <v>0.001150921569205821</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4035768508911133</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4030711650848389</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01013053301721811</v>
+        <v>2.557181346674042e-07</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4036400318145752</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.3989102840423584</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1627335399389267</v>
+        <v>2.237051376141608e-05</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4009411334991455</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4880698919296265</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0003910625528078526</v>
+        <v>0.007591420318931341</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.398486852645874</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4007100164890289</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06470626592636108</v>
+        <v>4.942457508150255e-06</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4076180458068848</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4019383192062378</v>
       </c>
       <c r="W288" t="n">
-        <v>1.623456773813814e-05</v>
+        <v>3.225929322070442e-05</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4693329334259033</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.872094452381134</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1117483898997307</v>
+        <v>0.16221684217453</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3993799686431885</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4233047962188721</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06939543038606644</v>
+        <v>0.0005723973736166954</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4037408828735352</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.8871570229530334</v>
       </c>
       <c r="W291" t="n">
-        <v>0.08616678416728973</v>
+        <v>0.2336911708116531</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4057760238647461</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.3973581790924072</v>
       </c>
       <c r="W292" t="n">
-        <v>0.000355150579707697</v>
+        <v>7.086010737111792e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4014339447021484</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4030696153640747</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01040607877075672</v>
+        <v>2.675418500075466e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4052119255065918</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.4022339880466461</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01500334497541189</v>
+        <v>8.8681117631495e-06</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4506208896636963</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4951544106006622</v>
       </c>
       <c r="W295" t="n">
-        <v>0.03765274956822395</v>
+        <v>0.001983234426006675</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.400460958480835</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.3976539969444275</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0311279185116291</v>
+        <v>7.879032636992633e-06</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4033129215240479</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4959414601325989</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01552992686629295</v>
+        <v>0.008580045774579048</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3991761207580566</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.410703182220459</v>
       </c>
       <c r="W298" t="n">
-        <v>0.05850953981280327</v>
+        <v>0.0001328731450485066</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4018728733062744</v>
       </c>
       <c r="V299" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4986063838005066</v>
       </c>
       <c r="W299" t="n">
-        <v>0.3021791577339172</v>
+        <v>0.009357372298836708</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.406486988067627</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.8925208449363708</v>
       </c>
       <c r="W300" t="n">
-        <v>0.01713007315993309</v>
+        <v>0.2362289130687714</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4470851421356201</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4923402070999146</v>
       </c>
       <c r="W301" t="n">
-        <v>0.009273151867091656</v>
+        <v>0.002048020949587226</v>
       </c>
     </row>
     <row r="302" spans="1:23">
